--- a/biology/Botanique/Pinot_auxerrois/Pinot_auxerrois.xlsx
+++ b/biology/Botanique/Pinot_auxerrois/Pinot_auxerrois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pinot auxerrois est le nom donnée en Alsace aux vins blancs issus de pinot noir vinifié en blanc (sans la peau). 
 La vinification  en blanc du pinot est pratiquée en Bourgogne pour produire les Crémants "blancs de noir" ; elle est rare en Alsace. 
